--- a/spreadsheets/Talon.xlsx
+++ b/spreadsheets/Talon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1198AEA1-49EB-4E38-8462-DB29988B16A7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB010C-032C-4BB1-B7F5-D9DEA29A08A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="2730" yWindow="990" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="200">
   <si>
     <t>id</t>
   </si>
@@ -623,7 +623,10 @@
     <t>Follow fwii for challenger tier Talon Content.</t>
   </si>
   <si>
-    <t>https://i.imgur.com/IcLnUmI.jpg</t>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/XrDxoon.png</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1106,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,9 +1196,6 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1204,21 +1204,29 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1235,7 +1243,7 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{B148DC88-F302-4860-8C88-657DECDA47B0}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{043ADF91-6F39-49CB-8D57-02447579E7C6}"/>
     <hyperlink ref="B7" r:id="rId4" xr:uid="{6B0454A4-2C27-482B-8DEF-D2E4C4EBDBB2}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{B34351F9-30C8-40DA-B975-656E28515FEC}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{2A2452E6-2B6E-411E-B53A-D8E3418187AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -1247,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CAD4B-6F75-45EC-9CCF-5590BB3785E1}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1794,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/spreadsheets/Talon.xlsx
+++ b/spreadsheets/Talon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryantan/projects/champs.gg/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDB010C-032C-4BB1-B7F5-D9DEA29A08A0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0451DF5B-88A3-0249-9536-32D353CF3535}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="990" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="2740" yWindow="1000" windowWidth="21520" windowHeight="11840" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,6 @@
     <t>https://www.youtube.com/TC_fwii</t>
   </si>
   <si>
-    <t xml:space="preserve">Best Talon NA.Top/Mid Player for 10 years. 3 Accounts in top 50 Challenger during S8 and ending S9 with 1000LP. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Don't Trade Early without items </t>
   </si>
   <si>
@@ -627,6 +624,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/XrDxoon.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Talon NA. Top/Mid Player for 10 years. 3 Accounts in top 50 Challenger during S8 and ending S9 with 1000LP. </t>
   </si>
 </sst>
 </file>
@@ -1106,18 +1106,18 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="102.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="102.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1194,42 +1194,42 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1259,13 +1259,13 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1284,13 +1284,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1298,13 +1298,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1312,13 +1312,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1326,13 +1326,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1340,13 +1340,13 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1354,13 +1354,13 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1379,13 +1379,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1393,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1404,10 +1404,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1415,10 +1415,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1426,10 +1426,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1437,10 +1437,10 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1448,10 +1448,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1459,10 +1459,10 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1470,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1481,10 +1481,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1492,10 +1492,10 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1503,10 +1503,10 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1514,10 +1514,10 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1525,10 +1525,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1536,10 +1536,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1547,10 +1547,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1558,10 +1558,10 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1569,10 +1569,10 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1580,10 +1580,10 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -1591,10 +1591,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1602,10 +1602,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -1613,10 +1613,10 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -1624,10 +1624,10 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1635,10 +1635,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1646,10 +1646,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -1657,10 +1657,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -1668,10 +1668,10 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -1679,10 +1679,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>60</v>
       </c>
@@ -1690,10 +1690,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1701,10 +1701,10 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>62</v>
       </c>
@@ -1712,10 +1712,10 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -1723,10 +1723,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1734,10 +1734,10 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -1745,10 +1745,10 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -1756,10 +1756,10 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -1767,10 +1767,10 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1778,10 +1778,10 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1806,13 +1806,13 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="193.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="193.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1831,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1845,13 +1845,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -1859,13 +1859,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1873,13 +1873,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
@@ -1887,13 +1887,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1901,13 +1901,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1915,10 +1915,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -1926,13 +1926,13 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1940,10 +1940,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -1951,10 +1951,10 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>80</v>
       </c>
@@ -1962,10 +1962,10 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1973,10 +1973,10 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -1984,10 +1984,10 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -1995,10 +1995,10 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2006,10 +2006,10 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2017,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2028,10 +2028,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2039,10 +2039,10 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>83</v>
       </c>
@@ -2050,10 +2050,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -2061,10 +2061,10 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2072,10 +2072,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -2083,10 +2083,10 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>86</v>
       </c>
@@ -2094,10 +2094,10 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>87</v>
       </c>
@@ -2105,10 +2105,10 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -2116,10 +2116,10 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -2127,10 +2127,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>90</v>
       </c>
@@ -2138,10 +2138,10 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2149,10 +2149,10 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2160,10 +2160,10 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -2171,10 +2171,10 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
@@ -2182,10 +2182,10 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2193,10 +2193,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2204,10 +2204,10 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -2215,10 +2215,10 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -2226,10 +2226,10 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -2237,10 +2237,10 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -2248,10 +2248,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>95</v>
       </c>
@@ -2259,10 +2259,10 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -2270,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -2281,10 +2281,10 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -2292,10 +2292,10 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -2303,10 +2303,10 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>98</v>
       </c>
@@ -2314,10 +2314,10 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>99</v>
       </c>
@@ -2325,10 +2325,10 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>100</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
